--- a/Excel/template.xlsx
+++ b/Excel/template.xlsx
@@ -167,7 +167,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>key2</t>
+    <t>key1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
